--- a/database/240103_수업내용/테이블정의서_박성민.xlsx
+++ b/database/240103_수업내용/테이블정의서_박성민.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="현재_통합_문서" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E6A50F-75CE-4658-9831-C23EDEA5A183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F6885E-A08B-4D7D-BEA7-86EED8A65C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{15116679-7CBB-4BFC-A0B3-F50442D7BB7C}"/>
+    <workbookView xWindow="4470" yWindow="1185" windowWidth="25155" windowHeight="16155" firstSheet="5" activeTab="10" xr2:uid="{15116679-7CBB-4BFC-A0B3-F50442D7BB7C}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="3" r:id="rId1"/>
     <sheet name="기준정보" sheetId="4" r:id="rId2"/>
     <sheet name="TB_DEPT" sheetId="117" r:id="rId3"/>
-    <sheet name="TB_DOCTOR_LIST" sheetId="144" r:id="rId4"/>
-    <sheet name="TB_NURSE_LIST" sheetId="136" r:id="rId5"/>
-    <sheet name="TB_PATIENT_LIST" sheetId="135" r:id="rId6"/>
+    <sheet name="TB_DOCTOR" sheetId="144" r:id="rId4"/>
+    <sheet name="TB_NURSE" sheetId="136" r:id="rId5"/>
+    <sheet name="TB_PATIENT" sheetId="135" r:id="rId6"/>
     <sheet name="TB_MEDICAL_CHART" sheetId="137" r:id="rId7"/>
     <sheet name="TB_PERFORMANCE" sheetId="138" r:id="rId8"/>
     <sheet name="TB_PAYMENT_DEPT" sheetId="139" r:id="rId9"/>
@@ -696,18 +696,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>TB_DOCTOR_LIST</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_NURSE_LIST</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_PATIENT_LIST</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>TB_MEDICAL_CHART</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -724,10 +712,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>TB_DEPT_LIST</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>진료과 테이블</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1060,10 +1044,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>조영제 여부</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CONTRAST_STATUS</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1089,6 +1069,26 @@
   </si>
   <si>
     <t>결제 금액</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_DEPT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_DOCTOR</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_NURSE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PATIENT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>조영제 투여 여부</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2157,7 +2157,7 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G17" sqref="G17"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2193,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -2246,10 +2246,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="9"/>
@@ -2268,10 +2268,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9"/>
@@ -2290,10 +2290,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="9"/>
@@ -2312,10 +2312,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9"/>
@@ -2334,10 +2334,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9"/>
@@ -2353,10 +2353,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9"/>
@@ -2371,10 +2371,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="9"/>
@@ -2389,10 +2389,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="9"/>
@@ -2407,10 +2407,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="9"/>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>3</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -3885,7 +3885,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -3929,16 +3929,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -3953,10 +3953,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -3975,10 +3975,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
@@ -3999,10 +3999,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
@@ -4023,10 +4023,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
@@ -4445,8 +4445,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>3</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -4514,7 +4514,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -4558,16 +4558,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -4582,10 +4582,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -4604,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
@@ -4628,10 +4628,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
@@ -4652,10 +4652,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
@@ -16874,7 +16874,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>3</v>
@@ -16886,7 +16886,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -16907,7 +16907,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -16951,10 +16951,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>176</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>180</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
@@ -16975,10 +16975,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>177</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>181</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -16999,10 +16999,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>178</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>182</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="21" t="s">
@@ -17021,14 +17021,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>179</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>183</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -17043,10 +17043,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
@@ -17467,7 +17467,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -17502,7 +17502,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>3</v>
@@ -17514,12 +17514,12 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
         <f ca="1" xml:space="preserve"> "DROP TABLE "&amp; C3 &amp;" ;"</f>
-        <v>DROP TABLE TB_DOCTOR_LIST ;</v>
+        <v>DROP TABLE TB_DOCTOR ;</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -17529,13 +17529,13 @@
       <c r="B3" s="64"/>
       <c r="C3" s="42" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>TB_DOCTOR_LIST</v>
+        <v>TB_DOCTOR</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -17571,7 +17571,7 @@
       </c>
       <c r="I4" s="31" t="str">
         <f ca="1">"CREATE TABLE "&amp;C3&amp;" ("</f>
-        <v>CREATE TABLE TB_DOCTOR_LIST (</v>
+        <v>CREATE TABLE TB_DOCTOR (</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17579,16 +17579,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -17603,10 +17603,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -17627,14 +17627,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -17649,14 +17649,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -17671,10 +17671,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
@@ -17695,14 +17695,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -17717,14 +17717,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -17739,10 +17739,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="33" t="s">
@@ -17763,10 +17763,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="33" t="s">
@@ -17787,10 +17787,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="33" t="s">
@@ -17811,10 +17811,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="33" t="s">
@@ -18137,7 +18137,7 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:I14"/>
     </sheetView>
   </sheetViews>
@@ -18173,7 +18173,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>3</v>
@@ -18185,12 +18185,12 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
         <f ca="1" xml:space="preserve"> "DROP TABLE "&amp; C3 &amp;" ;"</f>
-        <v>DROP TABLE TB_NURSE_LIST ;</v>
+        <v>DROP TABLE TB_NURSE ;</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -18200,13 +18200,13 @@
       <c r="B3" s="64"/>
       <c r="C3" s="42" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>TB_NURSE_LIST</v>
+        <v>TB_NURSE</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="I4" s="31" t="str">
         <f ca="1">"CREATE TABLE "&amp;C3&amp;" ("</f>
-        <v>CREATE TABLE TB_NURSE_LIST (</v>
+        <v>CREATE TABLE TB_NURSE (</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18250,10 +18250,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
@@ -18274,10 +18274,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -18298,14 +18298,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -18320,14 +18320,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -18342,10 +18342,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
@@ -18366,14 +18366,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -18388,14 +18388,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -18410,10 +18410,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="33" t="s">
@@ -18434,10 +18434,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="33" t="s">
@@ -18458,10 +18458,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="33" t="s">
@@ -18836,7 +18836,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>3</v>
@@ -18848,12 +18848,12 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
         <f ca="1" xml:space="preserve"> "DROP TABLE "&amp; C3 &amp;" ;"</f>
-        <v>DROP TABLE TB_PATIENT_LIST ;</v>
+        <v>DROP TABLE TB_PATIENT ;</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -18863,13 +18863,13 @@
       <c r="B3" s="64"/>
       <c r="C3" s="42" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>TB_PATIENT_LIST</v>
+        <v>TB_PATIENT</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="I4" s="31" t="str">
         <f ca="1">"CREATE TABLE "&amp;C3&amp;" ("</f>
-        <v>CREATE TABLE TB_PATIENT_LIST (</v>
+        <v>CREATE TABLE TB_PATIENT (</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18913,10 +18913,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
@@ -18937,10 +18937,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -18961,10 +18961,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
@@ -18985,14 +18985,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -19007,10 +19007,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
@@ -19031,10 +19031,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
@@ -19055,10 +19055,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>177</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>181</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
@@ -19079,10 +19079,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="33" t="s">
@@ -19103,14 +19103,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -19125,14 +19125,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -19147,10 +19147,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="33" t="s">
@@ -19171,14 +19171,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -19515,7 +19515,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>3</v>
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -19548,7 +19548,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -19592,16 +19592,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -19616,10 +19616,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -19638,10 +19638,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
@@ -19662,10 +19662,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>177</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>181</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
@@ -19686,14 +19686,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -19708,10 +19708,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
@@ -19732,10 +19732,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
@@ -19756,10 +19756,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="33" t="s">
@@ -19780,10 +19780,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="33" t="s">
@@ -20138,7 +20138,7 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -20174,7 +20174,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>3</v>
@@ -20186,7 +20186,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -20207,7 +20207,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -20251,16 +20251,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -20275,10 +20275,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>176</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>180</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -20297,10 +20297,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>177</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>181</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
@@ -20321,14 +20321,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="46" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>3</v>
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -20826,7 +20826,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -20870,10 +20870,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
@@ -20894,14 +20894,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -20916,14 +20916,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -20938,10 +20938,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
@@ -20962,14 +20962,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>176</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>180</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -20984,10 +20984,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
@@ -21008,14 +21008,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>

--- a/database/240103_수업내용/테이블정의서_박성민.xlsx
+++ b/database/240103_수업내용/테이블정의서_박성민.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="현재_통합_문서" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F6885E-A08B-4D7D-BEA7-86EED8A65C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE216AA0-D5A0-4100-AECA-394E21715239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1185" windowWidth="25155" windowHeight="16155" firstSheet="5" activeTab="10" xr2:uid="{15116679-7CBB-4BFC-A0B3-F50442D7BB7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15116679-7CBB-4BFC-A0B3-F50442D7BB7C}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="3" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="259">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -764,10 +764,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>진료과 코드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>진료과 이름</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -776,10 +772,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>진료과 생성 일자</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>진료과 전화번호</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -800,10 +792,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>면허 번호</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>의사 이름</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -824,10 +812,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>면허 정지 여부</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>전화번호</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -856,10 +840,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>담당과 코드</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>담당과 이름</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -872,18 +852,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CLOSED_DAYS</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>INTEGER</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>NURSE_NAME</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>환자 등록 번호</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -896,26 +868,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>담당의</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당의 면허 번호</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>최근 진료일</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>퇴원 여부</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴원일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>PATIENT_CD</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1004,10 +960,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>결제 번호</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>결제 일시</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1089,6 +1041,58 @@
   </si>
   <si>
     <t>조영제 투여 여부</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료과 고유번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료과 생성일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사 면허번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당과 고유번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>면허 취소 여부</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>간호사 면허번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당의 면허번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자 등록번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>입원 여부</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>입원일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHART_CD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>차트 고유번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 코드</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2154,10 +2158,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G17" sqref="G17"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2202,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -2246,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>163</v>
@@ -2268,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>164</v>
@@ -2290,7 +2294,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>165</v>
@@ -2312,7 +2316,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>166</v>
@@ -2353,10 +2357,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9"/>
@@ -3817,7 +3821,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3864,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -3929,16 +3933,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -3953,10 +3957,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -3975,23 +3979,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="33"/>
       <c r="I7" s="31" t="str">
         <f t="shared" ref="I7:I36" si="0">IF(B7="","",B7&amp;" "&amp;E7&amp;" "&amp;IF(F7="","","("&amp;F7&amp;") ")&amp;IF(OR(G7="N",G7="X"),"NOT NULL",IF(D7="O","NOT NULL", ""))&amp;IF(H7="",""," DEFAULT '"&amp;H7&amp;"'")&amp;IF(B8="",");",","))</f>
-        <v>PATIENT_NAME VARCHAR (100) ,</v>
+        <v>PATIENT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3999,23 +4003,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="34">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="33"/>
       <c r="I8" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>BLOOD_TYPE VARCHAR (100) ,</v>
+        <v>BLOOD_TYPE VARCHAR (10) ,</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4023,10 +4027,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
@@ -4445,8 +4449,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4493,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -4558,16 +4562,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -4582,10 +4586,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -4604,23 +4608,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="33"/>
       <c r="I7" s="31" t="str">
         <f t="shared" ref="I7:I36" si="0">IF(B7="","",B7&amp;" "&amp;E7&amp;" "&amp;IF(F7="","","("&amp;F7&amp;") ")&amp;IF(OR(G7="N",G7="X"),"NOT NULL",IF(D7="O","NOT NULL", ""))&amp;IF(H7="",""," DEFAULT '"&amp;H7&amp;"'")&amp;IF(B8="",");",","))</f>
-        <v>PATIENT_NAME VARCHAR (100) ,</v>
+        <v>PATIENT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4628,23 +4632,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="34">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="33"/>
       <c r="I8" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>CONTRAST_STATUS VARCHAR (100) ,</v>
+        <v>CONTRAST_STATUS VARCHAR (10) ,</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4652,10 +4656,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
@@ -16838,8 +16842,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I9"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -16886,7 +16890,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -16954,7 +16958,7 @@
         <v>172</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
@@ -16978,20 +16982,20 @@
         <v>173</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="33"/>
       <c r="I6" s="31" t="str">
         <f>IF(B6="","",B6&amp;" "&amp;E6&amp;" "&amp;IF(F6="","","("&amp;F6&amp;") ")&amp;IF(OR(G6="N",G6="X"),"NOT NULL",IF(D6="O","NOT NULL", ""))&amp;IF(H6="",""," DEFAULT '"&amp;H6&amp;"'")&amp;IF(B7="",");",","))</f>
-        <v>DEPT_NAME VARCHAR (100) ,</v>
+        <v>DEPT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17002,7 +17006,7 @@
         <v>174</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="21" t="s">
@@ -17024,11 +17028,11 @@
         <v>175</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -17043,23 +17047,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F9" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="33"/>
       <c r="I9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>TEL_NUMBER VARCHAR (100) );</v>
+        <v>TEL_NUMBER VARCHAR (50) );</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17467,7 +17471,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -17514,7 +17518,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -17579,16 +17583,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -17603,23 +17607,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="33"/>
       <c r="I6" s="31" t="str">
         <f>IF(B6="","",B6&amp;" "&amp;E6&amp;" "&amp;IF(F6="","","("&amp;F6&amp;") ")&amp;IF(OR(G6="N",G6="X"),"NOT NULL",IF(D6="O","NOT NULL", ""))&amp;IF(H6="",""," DEFAULT '"&amp;H6&amp;"'")&amp;IF(B7="",");",","))</f>
-        <v>DOCTOR_NAME VARCHAR (100) ,</v>
+        <v>DOCTOR_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17627,21 +17631,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="34"/>
-      <c r="E7" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="34"/>
+      <c r="E7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="34">
+        <v>10</v>
+      </c>
       <c r="G7" s="34"/>
       <c r="H7" s="33"/>
       <c r="I7" s="31" t="str">
         <f t="shared" ref="I7:I36" si="0">IF(B7="","",B7&amp;" "&amp;E7&amp;" "&amp;IF(F7="","","("&amp;F7&amp;") ")&amp;IF(OR(G7="N",G7="X"),"NOT NULL",IF(D7="O","NOT NULL", ""))&amp;IF(H7="",""," DEFAULT '"&amp;H7&amp;"'")&amp;IF(B8="",");",","))</f>
-        <v>GET_LICENSE_DATE TIMESTAMP ,</v>
+        <v>GENDER VARCHAR (10) ,</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17649,21 +17655,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="33"/>
       <c r="I8" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>JOIN_COM_DATE TIMESTAMP ,</v>
+        <v>BIRTH_DATE TIMESTAMP ,</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17671,23 +17677,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F9" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="33"/>
       <c r="I9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>GENDER VARCHAR (100) ,</v>
+        <v>TEL_NUMBER VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17695,21 +17701,21 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="33"/>
       <c r="I10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>BIRTH_DATE TIMESTAMP ,</v>
+        <v>GET_LICENSE_DATE TIMESTAMP ,</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17717,21 +17723,21 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="33"/>
       <c r="I11" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DEPT_CD INTEGER ,</v>
+        <v>JOIN_COM_DATE TIMESTAMP ,</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17739,23 +17745,21 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="D12" s="34"/>
-      <c r="E12" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="34">
-        <v>100</v>
-      </c>
+      <c r="E12" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="33"/>
       <c r="I12" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DEPT_NAME VARCHAR (100) ,</v>
+        <v>DEPT_CD INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17763,23 +17767,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F13" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="33"/>
       <c r="I13" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>SUSPEND_LICENSE VARCHAR (100) ,</v>
+        <v>DEPT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17787,23 +17791,23 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="34">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="33"/>
       <c r="I14" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>TEL_NUMBER VARCHAR (100) ,</v>
+        <v>SUSPEND_LICENSE VARCHAR (10) ,</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -17811,23 +17815,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F15" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="33"/>
       <c r="I15" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>CLOSED_DAY VARCHAR (100) );</v>
+        <v>CLOSED_DAY VARCHAR (50) );</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18137,8 +18141,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I14"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -18185,7 +18189,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -18250,16 +18254,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -18274,23 +18278,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="33"/>
       <c r="I6" s="31" t="str">
         <f>IF(B6="","",B6&amp;" "&amp;E6&amp;" "&amp;IF(F6="","","("&amp;F6&amp;") ")&amp;IF(OR(G6="N",G6="X"),"NOT NULL",IF(D6="O","NOT NULL", ""))&amp;IF(H6="",""," DEFAULT '"&amp;H6&amp;"'")&amp;IF(B7="",");",","))</f>
-        <v>NURSE_NAME VARCHAR (100) ,</v>
+        <v>DOCTOR_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18298,21 +18302,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="34"/>
-      <c r="E7" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="34"/>
+      <c r="E7" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="34">
+        <v>10</v>
+      </c>
       <c r="G7" s="34"/>
       <c r="H7" s="33"/>
       <c r="I7" s="31" t="str">
         <f t="shared" ref="I7:I36" si="0">IF(B7="","",B7&amp;" "&amp;E7&amp;" "&amp;IF(F7="","","("&amp;F7&amp;") ")&amp;IF(OR(G7="N",G7="X"),"NOT NULL",IF(D7="O","NOT NULL", ""))&amp;IF(H7="",""," DEFAULT '"&amp;H7&amp;"'")&amp;IF(B8="",");",","))</f>
-        <v>GET_LICENSE_DATE TIMESTAMP ,</v>
+        <v>GENDER VARCHAR (10) ,</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18320,21 +18326,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="33"/>
       <c r="I8" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>JOIN_COM_DATE TIMESTAMP ,</v>
+        <v>BIRTH_DATE TIMESTAMP ,</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18342,23 +18348,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F9" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="33"/>
       <c r="I9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>GENDER VARCHAR (100) ,</v>
+        <v>TEL_NUMBER VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18366,21 +18372,21 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="33"/>
       <c r="I10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>BIRTH_DATE TIMESTAMP ,</v>
+        <v>GET_LICENSE_DATE TIMESTAMP ,</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18388,21 +18394,21 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="33"/>
       <c r="I11" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DEPT_CD INTEGER ,</v>
+        <v>JOIN_COM_DATE TIMESTAMP ,</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18410,23 +18416,21 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="D12" s="34"/>
-      <c r="E12" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="34">
-        <v>100</v>
-      </c>
+      <c r="E12" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="33"/>
       <c r="I12" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DEPT_NAME VARCHAR (100) ,</v>
+        <v>DEPT_CD INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18434,23 +18438,23 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F13" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="33"/>
       <c r="I13" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>TEL_NUMBER VARCHAR (100) ,</v>
+        <f>IF(B13="","",B13&amp;" "&amp;E13&amp;" "&amp;IF(F13="","","("&amp;F13&amp;") ")&amp;IF(OR(G13="N",G13="X"),"NOT NULL",IF(D13="O","NOT NULL", ""))&amp;IF(H13="",""," DEFAULT '"&amp;H13&amp;"'")&amp;IF(B14="",");",","))</f>
+        <v>DEPT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18458,23 +18462,23 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F14" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="33"/>
       <c r="I14" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>CLOSED_DAYS VARCHAR (100) );</v>
+        <f>IF(B14="","",B14&amp;" "&amp;E14&amp;" "&amp;IF(F14="","","("&amp;F14&amp;") ")&amp;IF(OR(G14="N",G14="X"),"NOT NULL",IF(D14="O","NOT NULL", ""))&amp;IF(H14="",""," DEFAULT '"&amp;H14&amp;"'")&amp;IF(B15="",");",","))</f>
+        <v>CLOSED_DAY VARCHAR (50) );</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18489,7 +18493,7 @@
       <c r="G15" s="34"/>
       <c r="H15" s="33"/>
       <c r="I15" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15="","",B15&amp;" "&amp;E15&amp;" "&amp;IF(F15="","","("&amp;F15&amp;") ")&amp;IF(OR(G15="N",G15="X"),"NOT NULL",IF(D15="O","NOT NULL", ""))&amp;IF(H15="",""," DEFAULT '"&amp;H15&amp;"'")&amp;IF(B16="",");",","))</f>
         <v/>
       </c>
     </row>
@@ -18800,8 +18804,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I16"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -18848,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -18913,10 +18917,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
@@ -18937,23 +18941,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="33"/>
       <c r="I6" s="31" t="str">
         <f>IF(B6="","",B6&amp;" "&amp;E6&amp;" "&amp;IF(F6="","","("&amp;F6&amp;") ")&amp;IF(OR(G6="N",G6="X"),"NOT NULL",IF(D6="O","NOT NULL", ""))&amp;IF(H6="",""," DEFAULT '"&amp;H6&amp;"'")&amp;IF(B7="",");",","))</f>
-        <v>PATIENT_NAME VARCHAR (100) ,</v>
+        <v>PATIENT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18961,23 +18965,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="34">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="33"/>
       <c r="I7" s="31" t="str">
         <f t="shared" ref="I7:I36" si="0">IF(B7="","",B7&amp;" "&amp;E7&amp;" "&amp;IF(F7="","","("&amp;F7&amp;") ")&amp;IF(OR(G7="N",G7="X"),"NOT NULL",IF(D7="O","NOT NULL", ""))&amp;IF(H7="",""," DEFAULT '"&amp;H7&amp;"'")&amp;IF(B8="",");",","))</f>
-        <v>GENDER VARCHAR (100) ,</v>
+        <v>GENDER VARCHAR (10) ,</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -18985,14 +18989,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -19007,23 +19011,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F9" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="33"/>
       <c r="I9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>BLOOD_TYPE VARCHAR (100) ,</v>
+        <v>TEL_NUMBER VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19031,23 +19035,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F10" s="34">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="33"/>
       <c r="I10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>TEL_NUMBER VARCHAR (100) ,</v>
+        <v>BLOOD_TYPE VARCHAR (10) ,</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19058,20 +19062,20 @@
         <v>173</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F11" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="33"/>
       <c r="I11" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DEPT_NAME VARCHAR (100) ,</v>
+        <v>DEPT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19079,23 +19083,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="33"/>
       <c r="I12" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DOCTOR_NAME VARCHAR (100) ,</v>
+        <v>DOCTOR_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19103,14 +19107,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="33" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -19125,14 +19129,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -19147,23 +19151,23 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F15" s="34">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="33"/>
       <c r="I15" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>ADMIT_STATUS VARCHAR (100) ,</v>
+        <v>ADMIT_STATUS VARCHAR (10) ,</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19171,14 +19175,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -19479,8 +19483,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I13"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -19527,7 +19531,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -19548,7 +19552,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -19592,23 +19596,23 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="33"/>
       <c r="I5" s="31" t="str">
         <f>IF(B5="","",B5&amp;" "&amp;E5&amp;" "&amp;IF(F5="","","("&amp;F5&amp;") ")&amp;IF(OR(G5="N",G5="X"),"NOT NULL",IF(D5="O","NOT NULL", ""))&amp;IF(H5="",""," DEFAULT '"&amp;H5&amp;"'")&amp;IF(B6="",");",","))</f>
-        <v>TREAT_DATE TIMESTAMP NOT NULL,</v>
+        <v>CHART_CD INTEGER NOT NULL,</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19616,21 +19620,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="33"/>
       <c r="I6" s="31" t="str">
         <f>IF(B6="","",B6&amp;" "&amp;E6&amp;" "&amp;IF(F6="","","("&amp;F6&amp;") ")&amp;IF(OR(G6="N",G6="X"),"NOT NULL",IF(D6="O","NOT NULL", ""))&amp;IF(H6="",""," DEFAULT '"&amp;H6&amp;"'")&amp;IF(B7="",");",","))</f>
-        <v>PATIENT_CD INTEGER ,</v>
+        <v>TREAT_DATE TIMESTAMP ,</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19638,23 +19642,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D7" s="34"/>
-      <c r="E7" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="34">
-        <v>100</v>
-      </c>
+      <c r="E7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="33"/>
       <c r="I7" s="31" t="str">
         <f t="shared" ref="I7:I36" si="0">IF(B7="","",B7&amp;" "&amp;E7&amp;" "&amp;IF(F7="","","("&amp;F7&amp;") ")&amp;IF(OR(G7="N",G7="X"),"NOT NULL",IF(D7="O","NOT NULL", ""))&amp;IF(H7="",""," DEFAULT '"&amp;H7&amp;"'")&amp;IF(B8="",");",","))</f>
-        <v>PATIENT_NAME VARCHAR (100) ,</v>
+        <v>PATIENT_CD INTEGER ,</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19662,23 +19664,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="33"/>
       <c r="I8" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DEPT_NAME VARCHAR (100) ,</v>
+        <v>PATIENT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19686,21 +19688,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="34"/>
+        <v>83</v>
+      </c>
+      <c r="F9" s="34">
+        <v>50</v>
+      </c>
       <c r="G9" s="34"/>
       <c r="H9" s="33"/>
       <c r="I9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DOCTOR_CD INTEGER ,</v>
+        <v>DEPT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19708,23 +19712,21 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="34">
-        <v>100</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="33"/>
       <c r="I10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DOCTOR_NAME VARCHAR (100) ,</v>
+        <v>DOCTOR_CD INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19732,23 +19734,23 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F11" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="33"/>
       <c r="I11" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DISEASE_NAME VARCHAR (100) ,</v>
+        <v>DOCTOR_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19756,23 +19758,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="33"/>
       <c r="I12" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>DETAIL VARCHAR (100) ,</v>
+        <v>DISEASE_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -19780,10 +19782,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="33" t="s">
@@ -19796,23 +19798,31 @@
       <c r="H13" s="33"/>
       <c r="I13" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>PRESCRIPTION VARCHAR (100) );</v>
+        <v>DETAIL VARCHAR (100) ,</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>10</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>216</v>
+      </c>
       <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="E14" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="34">
+        <v>100</v>
+      </c>
       <c r="G14" s="34"/>
       <c r="H14" s="33"/>
       <c r="I14" s="31" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>PRESCRIPTION VARCHAR (100) );</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20138,8 +20148,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -20186,7 +20196,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -20207,7 +20217,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="66"/>
@@ -20251,16 +20261,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -20278,7 +20288,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
@@ -20300,20 +20310,20 @@
         <v>173</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F7" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="33"/>
       <c r="I7" s="31" t="str">
         <f t="shared" ref="I7:I36" si="0">IF(B7="","",B7&amp;" "&amp;E7&amp;" "&amp;IF(F7="","","("&amp;F7&amp;") ")&amp;IF(OR(G7="N",G7="X"),"NOT NULL",IF(D7="O","NOT NULL", ""))&amp;IF(H7="",""," DEFAULT '"&amp;H7&amp;"'")&amp;IF(B8="",");",","))</f>
-        <v>DEPT_NAME VARCHAR (100) ,</v>
+        <v>DEPT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20321,14 +20331,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -20758,7 +20768,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -20805,7 +20815,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="48" t="str">
@@ -20870,10 +20880,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>81</v>
@@ -20894,14 +20904,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -20916,14 +20926,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="33" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -20938,23 +20948,23 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F8" s="34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="33"/>
       <c r="I8" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>PATIENT_NAME VARCHAR (100) ,</v>
+        <v>PATIENT_NAME VARCHAR (50) ,</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -20965,11 +20975,11 @@
         <v>172</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="33" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -20984,23 +20994,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="33" t="s">
         <v>83</v>
       </c>
       <c r="F10" s="34">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="33"/>
       <c r="I10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>SEVERE_STATUS VARCHAR (100) ,</v>
+        <v>SEVERE_STATUS VARCHAR (10) ,</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -21008,14 +21018,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="33" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
